--- a/ig/ch-lab-order/StructureDefinition-ch-lab-document-reference.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-document-reference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -243,6 +243,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: XDS metadata</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
   </si>
   <si>
     <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
-    <t>Mapping: XDS</t>
   </si>
   <si>
     <t/>
@@ -569,6 +569,9 @@
     <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
   </si>
   <si>
+    <t>approved -&gt; status=current, deprecated -&gt; status=superseded. Other status values are allowed but are not defined in this mapping to XDS, see https://profiles.ihe.net/ITI/MHD/ConceptMap-FhirStatusVsStatusCode.html</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -582,10 +585,6 @@
   </si>
   <si>
     <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>Table 4.5.1.1-1 (FHIR DocumentReference mapping to DocumentEntry): approved -&gt; status=current,
-							deprecated -&gt; status=superseded. Other status values are allowed but are not defined in this mapping to XDS.</t>
   </si>
   <si>
     <t>DocumentReference.docStatus</t>
@@ -631,7 +630,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -672,7 +671,7 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.classCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.classCode</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -1005,7 +1004,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.confidentialityCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.confidentialityCode</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1115,7 +1114,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-docref-1:The codes from the following ValueSet are 'preferred': http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.mimeType {exists()}</t>
+ch-docref-1:The codes from the following ValueSet are 'preferred': http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.mimeType {memberOf('http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.mimeType')}</t>
   </si>
   <si>
     <t>./mediaType, ./charset</t>
@@ -1139,7 +1138,7 @@
     <t>en-AU</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.languageCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.languageCode</t>
   </si>
   <si>
     <t>Attachment.language</t>
@@ -1309,7 +1308,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.formatCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.formatCode</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1438,7 +1437,7 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.healthcareFacilityTypeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.healthcareFacilityTypeCode</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>
@@ -1468,7 +1467,7 @@
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.practiceSettingCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.practiceSettingCode</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
@@ -1850,17 +1849,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1869,30 +1868,30 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.22265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.16796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="173.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="103.65625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2131,19 +2130,19 @@
         <v>89</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>83</v>
@@ -2765,10 +2764,10 @@
         <v>83</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>83</v>
@@ -2891,10 +2890,10 @@
         <v>83</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>83</v>
@@ -3017,10 +3016,10 @@
         <v>83</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3145,10 +3144,10 @@
         <v>83</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3267,28 +3266,28 @@
         <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AQ11" t="s" s="2">
+      <c r="AR11" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AR11" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3391,28 +3390,28 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP12" t="s" s="2">
+      <c r="AQ12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AQ12" t="s" s="2">
+      <c r="AR12" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AR12" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3520,16 +3519,16 @@
         <v>178</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>181</v>
@@ -3646,22 +3645,22 @@
         <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AR14" t="s" s="2">
         <v>83</v>
@@ -3767,28 +3766,28 @@
         <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AP15" t="s" s="2">
+      <c r="AQ15" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AQ15" t="s" s="2">
+      <c r="AR15" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AR15" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3894,25 +3893,25 @@
         <v>83</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AP16" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AQ16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR16" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AR16" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -4015,28 +4014,28 @@
         <v>107</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AP17" t="s" s="2">
+      <c r="AQ17" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AQ17" t="s" s="2">
+      <c r="AR17" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AR17" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4141,22 +4140,22 @@
         <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>83</v>
@@ -4267,28 +4266,28 @@
         <v>107</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AO19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AQ19" t="s" s="2">
+      <c r="AR19" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AR19" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4393,28 +4392,28 @@
         <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AQ20" t="s" s="2">
+      <c r="AR20" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -4519,16 +4518,16 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4648,14 +4647,14 @@
         <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
       </c>
@@ -4663,10 +4662,10 @@
         <v>83</v>
       </c>
       <c r="AQ22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR22" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4775,10 +4774,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -4901,10 +4900,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -5029,10 +5028,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5152,14 +5151,14 @@
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5167,10 +5166,10 @@
         <v>83</v>
       </c>
       <c r="AQ26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR26" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5276,14 +5275,14 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5291,10 +5290,10 @@
         <v>83</v>
       </c>
       <c r="AQ27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR27" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AR27" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5407,22 +5406,22 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN28" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AQ28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5530,25 +5529,25 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AQ29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5654,13 +5653,13 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5781,10 +5780,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5907,10 +5906,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6035,10 +6034,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6156,25 +6155,25 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AO34" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AQ34" t="s" s="2">
+      <c r="AR34" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AR34" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6283,10 +6282,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6409,10 +6408,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6535,19 +6534,19 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AR37" t="s" s="2">
         <v>83</v>
@@ -6659,10 +6658,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6787,19 +6786,19 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>83</v>
@@ -6915,19 +6914,19 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>83</v>
@@ -7043,10 +7042,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7171,10 +7170,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7297,10 +7296,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7423,10 +7422,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7544,25 +7543,25 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AO45" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR45" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AR45" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7673,10 +7672,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7797,10 +7796,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7923,10 +7922,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8051,10 +8050,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8169,22 +8168,22 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>83</v>
@@ -8298,14 +8297,14 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8313,10 +8312,10 @@
         <v>83</v>
       </c>
       <c r="AQ51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AR51" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -8422,25 +8421,25 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -8544,25 +8543,25 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AO53" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR53" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AR53" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -8670,25 +8669,25 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR54" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8794,25 +8793,25 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR55" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AR55" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -8920,25 +8919,25 @@
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR56" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AR56" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
